--- a/data/trans_bre/P1002-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1002-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.084405058524673</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>2.594965971668571</v>
+        <v>2.594965971668569</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6922117330000166</v>
@@ -649,7 +649,7 @@
         <v>0.5487920423947326</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.5704021948723849</v>
+        <v>0.5704021948723843</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2392456550596004</v>
+        <v>-0.7316735324656076</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.3169297444292788</v>
+        <v>-0.2783546098444638</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.052083406661857</v>
+        <v>-1.24959357771709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.2023781631010879</v>
+        <v>-0.1641979173496645</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.09879342540923577</v>
+        <v>-0.1833663945011968</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.1577903587117333</v>
+        <v>-0.1222434891431811</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.2442171082831368</v>
+        <v>-0.2871537530531055</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.04106360068956438</v>
+        <v>-0.05011434210636786</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.777707759279934</v>
+        <v>5.930852788286635</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.965883953140318</v>
+        <v>7.037002924568323</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.201647254322427</v>
+        <v>5.353298279273202</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.620123049595025</v>
+        <v>5.641328467476537</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.399929773839483</v>
+        <v>2.363321879440947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.639356484169193</v>
+        <v>2.439812871110519</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.01826933391873</v>
+        <v>2.076990665909649</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.730441172492389</v>
+        <v>1.7240446811076</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.02689985110984764</v>
+        <v>-0.07649750485935643</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.5428424199205457</v>
+        <v>0.3574615656818955</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.982895102167475</v>
+        <v>-2.080218009199809</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.607445784169468</v>
+        <v>3.024655359990533</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.04665629294320905</v>
+        <v>-0.04324588396017858</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03728977882632745</v>
+        <v>-0.02847281853161339</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3855431832553803</v>
+        <v>-0.3905242423963194</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.6181872274010985</v>
+        <v>0.6090306976017178</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.753314536085286</v>
+        <v>6.822415237972915</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.785808002009608</v>
+        <v>8.89139598607554</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.900670492174921</v>
+        <v>4.434276946462909</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.560179080657816</v>
+        <v>8.725181543399565</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.977657330879718</v>
+        <v>3.099955537006994</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.467762944355196</v>
+        <v>2.541293639085498</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.845433560506373</v>
+        <v>1.684054112726784</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>5.385658781415931</v>
+        <v>5.318308709364545</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>8.201523645017968</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.67168467499727</v>
+        <v>1.671684674997273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9418845983720082</v>
@@ -849,7 +849,7 @@
         <v>1.354846898319838</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2121054246555085</v>
+        <v>0.212105424655509</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1678779651731608</v>
+        <v>0.03490041480905986</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>3.096463543098733</v>
+        <v>2.725112177305937</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.416831948996792</v>
+        <v>3.132608410448655</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.490074015356368</v>
+        <v>-2.591117386623814</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.006504953002237386</v>
+        <v>-0.007391544151329957</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.302953057327658</v>
+        <v>0.2645792658328909</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3021643889484095</v>
+        <v>0.3912101475027372</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2843370186385997</v>
+        <v>-0.2829435825396028</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.65099522385677</v>
+        <v>10.7059448299276</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>13.86723396789593</v>
+        <v>13.77553952427016</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.64265530485832</v>
+        <v>15.72658240311654</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.059629144158149</v>
+        <v>6.060416382546592</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.432656556634891</v>
+        <v>2.66093551014335</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.979148648399211</v>
+        <v>1.915607217525471</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.217516451693443</v>
+        <v>3.223391922149929</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9178561588830256</v>
+        <v>0.9680099518341576</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-0.3744893397100043</v>
+        <v>-0.4472584372296416</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6860894076753173</v>
+        <v>0.6660824980100793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2.414268817173546</v>
+        <v>2.0879650483985</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-0.2389044107549912</v>
+        <v>-0.4418476687923272</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05745249569161077</v>
+        <v>-0.06743585772190602</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07010981673216701</v>
+        <v>0.06658320208430052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3799248945361129</v>
+        <v>0.3336988246800768</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.03228541046947282</v>
+        <v>-0.06245404545467596</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.573664294046054</v>
+        <v>4.59099956393902</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.554100345302348</v>
+        <v>6.445637125254929</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7.245662773947036</v>
+        <v>7.171679625403569</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.747140259555285</v>
+        <v>3.778502862476079</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.800691282817266</v>
+        <v>0.7761069843645859</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8947839098747595</v>
+        <v>0.9176032079323084</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.603754647628886</v>
+        <v>1.640636288740791</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7349279620848148</v>
+        <v>0.704486680349846</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.42800889792195</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6.803113156373156</v>
+        <v>6.803113156373154</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5352499919650313</v>
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8122693549384173</v>
+        <v>-0.3034977505133981</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.444998721830066</v>
+        <v>9.727723515426181</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.880545426570277</v>
+        <v>3.987537053213097</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.518253423037632</v>
+        <v>3.695840473948953</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1274424849877589</v>
+        <v>-0.06280167171536016</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>1.222426175064872</v>
+        <v>1.246927808020948</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4540856939741482</v>
+        <v>0.4115443304892584</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3633022555676381</v>
+        <v>0.4506352117753423</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.498573498436999</v>
+        <v>6.941029502651721</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.13718623332637</v>
+        <v>16.85222324826657</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.60859545001041</v>
+        <v>10.4633525721912</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.423922875386756</v>
+        <v>9.564126693943468</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.620794239260567</v>
+        <v>1.9331441206415</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>4.065893370263021</v>
+        <v>3.977545016529292</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1.849416777508139</v>
+        <v>1.785980380727368</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1.774253952155374</v>
+        <v>1.840174101608476</v>
       </c>
     </row>
     <row r="19">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.619245332076853</v>
+        <v>3.07696564189384</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.893682793383356</v>
+        <v>6.613701597961079</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.391223824633561</v>
+        <v>4.556887966833938</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.196960290701255</v>
+        <v>2.306536265239924</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.4458276018773498</v>
+        <v>0.4995909932610068</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9737727687214111</v>
+        <v>0.8250459179336642</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6270348161292449</v>
+        <v>0.7274051763139011</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.1769999261272485</v>
+        <v>0.1858500556773173</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.068482697927742</v>
+        <v>8.279540869466182</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>13.56259133812343</v>
+        <v>13.1728947196337</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.32120585890058</v>
+        <v>10.43117543381534</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11.85943288445976</v>
+        <v>11.98570357267909</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.771806048501707</v>
+        <v>5.109706484571232</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.533434547180385</v>
+        <v>5.130520989271097</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.105495815991354</v>
+        <v>5.569581160806482</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>4.565517644270756</v>
+        <v>5.347764165444254</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>5.348543653548889</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.861427773491296</v>
+        <v>4.861427773491297</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6220040455308429</v>
@@ -1249,7 +1249,7 @@
         <v>0.9982303791347572</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.8458238491250846</v>
+        <v>0.8458238491250848</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.056183784429657</v>
+        <v>2.073470255055474</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>5.717340956609767</v>
+        <v>5.78301325390171</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.018560700860261</v>
+        <v>4.083458528919913</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.645609758756504</v>
+        <v>3.651405684349439</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.3566583814208404</v>
+        <v>0.3539599598096507</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.796386289000988</v>
+        <v>0.7839031084171146</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7053555119431176</v>
+        <v>0.680240700710165</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.5634760681317804</v>
+        <v>0.5783684747931133</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.436932059543945</v>
+        <v>4.514467960191239</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>8.694490867395626</v>
+        <v>8.766434142621819</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.715771063757813</v>
+        <v>6.683424902478386</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.103682854123775</v>
+        <v>6.059602950675183</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9389258377449792</v>
+        <v>0.9751341633472759</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.449117645102278</v>
+        <v>1.467186643387592</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>1.401719940758186</v>
+        <v>1.404857349849191</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>1.190482259431368</v>
+        <v>1.181677164445163</v>
       </c>
     </row>
     <row r="25">
